--- a/biology/Botanique/Trille_rouge/Trille_rouge.xlsx
+++ b/biology/Botanique/Trille_rouge/Trille_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trillium erectum
 Le trille rouge (Trillium erectum) est une plante herbacée, vivace et rhizomateuse de la famille des Liliaceae (classification classique) ou des Melanthiaceae (classification APG II, 2003).
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante originaire de l'Amérique du Nord fleurit dans les forêts de feuillus ou les forêts mixtes au printemps. La fleur solitaire, de 5 à 7 cm de diamètre, comporte trois pétales rouge foncé et dégage une odeur de chien mouillé qui attire les mouches. Elle se dresse sur un pédoncule parfois recourbé, au-dessus d'un verticille de trois larges feuilles rhomboïdes sessiles et acuminées, rassemblées au sommet de la tige. Le fruit est une baie ovoïde, de couleur pourpre tirant sur le noir.
 </t>
@@ -544,7 +558,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de l'espèce vient du latin erectum, dressé.
 </t>
@@ -575,7 +591,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Canada : Ontario, Québec, Nouvelle-Écosse. 
 États-Unis : Delaware, Géorgie (État), Nouvelle-Angleterre, Michigan, Pennsylvanie, Tennessee, Virginie-Occidentale.
@@ -607,7 +625,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jeunes pousses peuvent se manger cuites comme légume, mais cette pratique est déconseillée puisqu'elle entraîne généralement la mort de la plante. Le rhizome et le fruit ne sont pas comestibles.
 </t>
@@ -638,7 +658,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est sujette à de nombreuses variations et anomalies, surtout vers le sud de son aire de distribution. Les fleurs sont parfois blanches (var. album) ou jaunes, voire bicolores.
 </t>
